--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/5 ANÁLISIS VERTICAL DE BALANCE GENERAL.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/5 ANÁLISIS VERTICAL DE BALANCE GENERAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2891EBB5-A565-43FC-910A-61BCABCC478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4EE3D-7F18-44EF-839F-E86F41970219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1148,6 +1148,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,12 +1168,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1756,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,19 +1774,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="100" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="98"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="1"/>
       <c r="K3" s="86" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="98"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -1806,51 +1806,51 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
       <c r="K7" s="33" t="s">
         <v>48</v>
       </c>
       <c r="L7" s="34"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103"/>
       <c r="K8" s="33" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="35"/>
@@ -1862,17 +1862,17 @@
       <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O12" s="87"/>
@@ -2211,7 +2211,7 @@
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="98" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="93">
@@ -2371,7 +2371,7 @@
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="99" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="93">
@@ -2696,7 +2696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:N103"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2714,17 +2714,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="102"/>
+      <c r="B2" s="104"/>
     </row>
     <row r="3" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="102"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="1"/>
       <c r="L3" s="86" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="102"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -2744,51 +2744,51 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
       <c r="K7" s="33" t="s">
         <v>48</v>
       </c>
       <c r="L7" s="34"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103"/>
       <c r="K8" s="33" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
@@ -2798,17 +2798,17 @@
       <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="45"/>
